--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value117.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value117.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.032622346810783</v>
+        <v>0.4351088404655457</v>
       </c>
       <c r="B1">
-        <v>1.814710395073708</v>
+        <v>1.026312232017517</v>
       </c>
       <c r="C1">
-        <v>4.352433264563477</v>
+        <v>4.622306823730469</v>
       </c>
       <c r="D1">
-        <v>2.470706845561858</v>
+        <v>1.442337155342102</v>
       </c>
       <c r="E1">
-        <v>0.9930255635265539</v>
+        <v>1.17347526550293</v>
       </c>
     </row>
   </sheetData>
